--- a/release_config.xlsx
+++ b/release_config.xlsx
@@ -38,15 +38,9 @@
     <t>tool.exe</t>
   </si>
   <si>
-    <t>imx6ullevk-mel_patch3_rn.pdf</t>
-  </si>
-  <si>
     <t>i.MX6UL Cumulative Patch 12</t>
   </si>
   <si>
-    <t>Mumtaz Ahmad - Resume - April-2018.pdf</t>
-  </si>
-  <si>
     <t>i.MX6 Sabre Series Cumulative Patch 12</t>
   </si>
   <si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>#202003098</t>
+  </si>
+  <si>
+    <t>#202003099</t>
+  </si>
+  <si>
+    <t>#2020030100</t>
   </si>
 </sst>
 </file>
@@ -139,14 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
@@ -451,10 +448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,141 +492,84 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>202003090</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>202003091</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6">
+        <v>202003092</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>202003090</v>
+        <v>202003093</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8">
+        <v>202003094</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>202003091</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
+        <v>202003095</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>202003092</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
+        <v>202003096</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
-        <v>202003093</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
-        <v>202003094</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
-        <v>202003095</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
-        <v>202003096</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A14" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
